--- a/ems/document/添加设备资产汇总.xlsx
+++ b/ems/document/添加设备资产汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mawujun.YOUNGOR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse\workspace\leon\ems\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="218">
   <si>
     <t>鄞州区前端设备汇总表</t>
   </si>
@@ -604,31 +605,95 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>16个设备的原值相加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16个设备的净值相加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端设备明细表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前段设备汇总表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两个表加上这个数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>净值=原值-折旧（折旧=原值*95%/1825*N天）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>1：所有品名的1825都是吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:N点位上线时间，还是设备上线时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>N=点位上线时间到现在为止的间隔天数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>16个设备的原值相加</t>
+    <t>是点位上线时间还是设备的第一次上线时间，如果是设备的第一次上线时间，那那些旧设备怎么办？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>16个设备的净值相加</t>
+    <t>update ems_equipment a set first_install_date=(select operatedate from (</t>
+  </si>
+  <si>
+    <t>select ecode,min(operatedate) operatedate from ems_equipmentcycle b</t>
+  </si>
+  <si>
+    <t>where b.operatetype='task_install'</t>
+  </si>
+  <si>
+    <t>group by ecode</t>
+  </si>
+  <si>
+    <t>) b</t>
+  </si>
+  <si>
+    <t>where a.ecode=b.ecode)</t>
+  </si>
+  <si>
+    <t>update ems_equipment a set unitprice=(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       select unitprice from ems_orderlist b where a.orderlist_id=b.id</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>更新净值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>前端设备明细表</t>
+    <t>3：N天</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>前段设备汇总表</t>
+    <t>安装上的那天N=1，第二天N=2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>这两个表加上这个数据</t>
+    <t xml:space="preserve">update ems_equipment a set unitprice_nav=unitprice-(unitprice*0.95/1825)*(ceil(TO_NUMBER(sysdate-trunc(first_install_date))))
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新所有现存的设备的初次安装时间，只需要执行一次就行了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新每个设备的原值，因为原值会发生变化，所以每次更新的时候更新一次</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,8 +840,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -796,6 +861,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -811,6 +882,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\mawujun.YOUNGOR\Documents\Tencent Files\16064988\Image\C2C\CB25MJ7}JU2$OEX`%DH~G6I.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2324100" y="7810500"/>
+          <a:ext cx="3876675" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,13 +1231,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EH37"/>
+  <dimension ref="A1:EH69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2037,10 +2168,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -2346,7 +2477,7 @@
         <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F8">
         <v>75</v>
@@ -2471,10 +2602,10 @@
         <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F9">
         <v>37</v>
@@ -5671,47 +5802,150 @@
       </c>
     </row>
     <row r="35" spans="2:138" x14ac:dyDescent="0.15">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="2:138" x14ac:dyDescent="0.15">
-      <c r="C36" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="C36" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
     </row>
     <row r="37" spans="2:138" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="C48" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D52" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C56" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C57" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C58" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C59" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C60" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C61" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C64" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C65" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C66" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C69" s="7" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C2:W2"/>
-    <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M36"/>
+    <mergeCell ref="DU2:DW2"/>
+    <mergeCell ref="DX2:DZ2"/>
+    <mergeCell ref="EA2:EH2"/>
+    <mergeCell ref="CP2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BQ2"/>
+    <mergeCell ref="BR2:BU2"/>
+    <mergeCell ref="BV2:BZ2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2"/>
+    <mergeCell ref="AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="A1:EG1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="DB2"/>
@@ -5728,25 +5962,29 @@
     <mergeCell ref="CC2"/>
     <mergeCell ref="CD2:CN2"/>
     <mergeCell ref="CO2"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M36"/>
-    <mergeCell ref="DU2:DW2"/>
-    <mergeCell ref="DX2:DZ2"/>
-    <mergeCell ref="EA2:EH2"/>
-    <mergeCell ref="CP2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BQ2"/>
-    <mergeCell ref="BR2:BU2"/>
-    <mergeCell ref="BV2:BZ2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2"/>
-    <mergeCell ref="AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AX2"/>
+    <mergeCell ref="C2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>